--- a/11.4-11.19计划.xlsx
+++ b/11.4-11.19计划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JYCao\OneDrive\Desktop\11408\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BC3D52-64D9-4FD2-A6F5-D2FA04E8F9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB4D185-52BD-417D-861E-C38B5C8C5C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12年订正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数学（上午）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,214 +51,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18年模拟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背诵手册P31-40，肖1k错题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16年模考+订正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17年模考+订正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18年模考+订正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19年模考+订正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20年模考+订正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21年模考+订正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22年模考+订正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速过13-17</t>
-  </si>
-  <si>
-    <t>快速过13-17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18年真题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18年订正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19年真题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19年订正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20年真题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21年真题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21年订正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22年真题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22年订正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背诵手册P41-50，肖1k错题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背诵手册P51-60，肖1k错题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背诵手册P61-70，肖1k错题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背诵手册P71-80，肖1k错题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背诵手册P81-90，肖1k错题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背诵手册P91-100，肖1k错题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背诵手册P101-110，肖1k错题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背诵手册P111-120，肖1k错题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背诵手册P121-130，肖1k错题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背诵手册P131-140，肖1k错题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背诵手册P141-150，肖1k错题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背诵手册P151-160，肖1k错题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背诵手册P161-170，肖1k错题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英语 2h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19年2篇精读、写大作文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19年2篇精读、写小作文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20年模拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21年2篇精读、写小作文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21年2篇精读、写大作文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22年模拟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23年2篇精读、写小作文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23年2篇精读、写大作文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背诵手册P171-180，肖1k错题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24年模拟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25年2篇精读、写大作文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19年完型+翻译、背大小作文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21年完型+翻译、背大小作文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23年完型+翻译、背大小作文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25年2篇精读、写小作文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专题补弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23年模考+订正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23年真题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20年订正</t>
+    <t>11.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-25真题；
+若错误多，酌情穿插一天订正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-25真题；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17选择；13-17大题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21阅读t1-t2；作文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19完型、新题型；作文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21阅读t3-t4；作文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21完型、新题型；作文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-25卷；穿插作文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背诵手册P46到104；
+肖一千错题
+（建议一天十页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背诵手册P183-262；
+错题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -339,13 +196,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -357,11 +251,16 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -647,7 +546,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -664,13 +563,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -678,267 +577,175 @@
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1">
       <c r="A2" s="4">
-        <v>11.4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>11.8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1">
       <c r="A3" s="4">
-        <v>11.5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>11.9</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A4" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A5" s="4">
-        <v>11.7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1">
       <c r="A6" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>11.12</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1">
       <c r="A7" s="4">
-        <v>11.9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>11.13</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="4">
+        <v>11.14</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A9" s="4">
+        <v>11.15</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="25.5" customHeight="1">
       <c r="A10" s="4">
-        <v>11.12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>11.16</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1">
       <c r="A11" s="4">
-        <v>11.13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>11.17</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="25.5" customHeight="1">
       <c r="A12" s="4">
-        <v>11.14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>11.18</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A13" s="4">
-        <v>11.15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A14" s="4">
-        <v>11.16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A15" s="4">
-        <v>11.17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A16" s="4">
-        <v>11.18</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" ht="25.5" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C3:C16"/>
+    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="E10:E16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
